--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAIKAT BISHAL\Desktop\desktop\v\final450\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\final450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75227115-0D6A-4A2D-9E6F-6D0690BD805E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF05E99E-45E9-47DA-9CE7-326A9C2CD046}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView minimized="1" xWindow="345" yWindow="4365" windowWidth="14535" windowHeight="11835" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="471">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1425,7 +1425,19 @@
     <t>yes</t>
   </si>
   <si>
-    <t xml:space="preserve"> yes</t>
+    <t>yes/no</t>
+  </si>
+  <si>
+    <t>All sorting algorithms</t>
+  </si>
+  <si>
+    <t>time not optimized</t>
+  </si>
+  <si>
+    <t>Dynamic programming</t>
+  </si>
+  <si>
+    <t>do today</t>
   </si>
 </sst>
 </file>
@@ -1872,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1883,19 +1895,20 @@
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="B2" s="10" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" spans="1:4" ht="21">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1906,12 +1919,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="C5" s="11" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="5" spans="1:4">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1922,7 +1933,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21">
+    <row r="7" spans="1:4" ht="21">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1930,76 +1941,82 @@
         <v>7</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21">
+      <c r="C8" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21">
+      <c r="C9" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21">
+      <c r="C10" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21">
+      <c r="C11" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21">
+      <c r="C12" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21">
+      <c r="C13" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2010,18 +2027,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="21">
+      <c r="C15" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -2032,7 +2049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21">
+    <row r="17" spans="1:4" ht="21">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -2043,18 +2060,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21">
+    <row r="18" spans="1:4" ht="21">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="21">
+      <c r="C18" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D18" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2065,18 +2085,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21">
+    <row r="20" spans="1:4" ht="21">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="21">
+      <c r="C20" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="21">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2087,40 +2107,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21">
+    <row r="22" spans="1:4" ht="21">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="21">
+      <c r="C22" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="21">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="21">
+      <c r="C23" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="21">
+      <c r="C24" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="21">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2131,18 +2151,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21">
+    <row r="26" spans="1:4" ht="21">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="21">
+      <c r="C26" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="21">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2153,18 +2173,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21">
+    <row r="28" spans="1:4" ht="21">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="21">
+      <c r="C28" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="21">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2175,18 +2195,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21">
+    <row r="30" spans="1:4" ht="21">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="21">
+      <c r="C30" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="21">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2197,7 +2217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21">
+    <row r="32" spans="1:4" ht="21">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -2208,7 +2228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21">
+    <row r="33" spans="1:4" ht="21">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
@@ -2219,51 +2239,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21">
+    <row r="34" spans="1:4" ht="21">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="21">
+      <c r="C34" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="21">
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="21">
+      <c r="C35" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D35" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="21">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="21">
+      <c r="C36" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="21">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="21">
+      <c r="C37" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="21">
       <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
@@ -2274,18 +2297,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21">
+    <row r="39" spans="1:4" ht="21">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="21">
+      <c r="C39" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="21">
       <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
@@ -2296,7 +2319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21">
+    <row r="41" spans="1:4" ht="21">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -2307,20 +2330,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21">
+    <row r="42" spans="1:4" ht="21">
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21">
+    <row r="43" spans="1:4" ht="21">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21">
+    <row r="44" spans="1:4" ht="21">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
@@ -2331,7 +2354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21">
+    <row r="45" spans="1:4" ht="21">
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
@@ -2342,7 +2365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21">
+    <row r="46" spans="1:4" ht="21">
       <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
@@ -2353,7 +2376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21">
+    <row r="47" spans="1:4" ht="21">
       <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
@@ -2364,7 +2387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21">
+    <row r="48" spans="1:4" ht="21">
       <c r="A48" s="8" t="s">
         <v>42</v>
       </c>
@@ -2442,8 +2465,8 @@
       <c r="B56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>4</v>
+      <c r="C56" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -7395,6 +7418,5 @@
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\final450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF05E99E-45E9-47DA-9CE7-326A9C2CD046}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C16005-4A2A-46FD-9E88-C90C30845B3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="345" yWindow="4365" windowWidth="14535" windowHeight="11835" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="0" yWindow="4365" windowWidth="14535" windowHeight="11835" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="472">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1438,6 +1438,9 @@
   </si>
   <si>
     <t>do today</t>
+  </si>
+  <si>
+    <t>M58</t>
   </si>
 </sst>
 </file>
@@ -1886,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2350,8 +2353,8 @@
       <c r="B44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>4</v>
+      <c r="C44" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="21">
@@ -2398,7 +2401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21">
+    <row r="49" spans="1:4" ht="21">
       <c r="A49" s="8" t="s">
         <v>42</v>
       </c>
@@ -2409,7 +2412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21">
+    <row r="50" spans="1:4" ht="21">
       <c r="A50" s="8" t="s">
         <v>42</v>
       </c>
@@ -2420,7 +2423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21">
+    <row r="51" spans="1:4" ht="21">
       <c r="A51" s="8" t="s">
         <v>42</v>
       </c>
@@ -2431,7 +2434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="21">
+    <row r="52" spans="1:4" ht="21">
       <c r="A52" s="8" t="s">
         <v>42</v>
       </c>
@@ -2442,7 +2445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21">
+    <row r="53" spans="1:4" ht="21">
       <c r="A53" s="8" t="s">
         <v>42</v>
       </c>
@@ -2453,12 +2456,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21">
+    <row r="55" spans="1:4" ht="21">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" ht="21">
+    <row r="56" spans="1:4" ht="21">
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
@@ -2469,51 +2472,52 @@
         <v>465</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="21">
+    <row r="57" spans="1:4" ht="21">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="21">
+      <c r="C57" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="21">
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="21">
+      <c r="C58" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D58" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="21">
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="21">
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" ht="21">
       <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="21">
+      <c r="C60" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="21">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2524,7 +2528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21">
+    <row r="62" spans="1:4" ht="21">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
@@ -2535,7 +2539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21">
+    <row r="63" spans="1:4" ht="21">
       <c r="A63" s="5" t="s">
         <v>53</v>
       </c>
@@ -2546,7 +2550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="21">
+    <row r="64" spans="1:4" ht="21">
       <c r="A64" s="5" t="s">
         <v>53</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\final450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C16005-4A2A-46FD-9E88-C90C30845B3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CCFA0E8-12E8-4935-AD19-FF3712C2B917}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4365" windowWidth="14535" windowHeight="11835" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1889,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2430,8 +2431,8 @@
       <c r="B51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>4</v>
+      <c r="C51" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\final450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CCFA0E8-12E8-4935-AD19-FF3712C2B917}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3EBE6C-B97B-403A-8185-94520C006152}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1442,6 +1441,9 @@
   </si>
   <si>
     <t>M58</t>
+  </si>
+  <si>
+    <t>reverse -&gt; add one -&gt; reverse</t>
   </si>
 </sst>
 </file>
@@ -1890,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3407,7 +3409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="21">
+    <row r="145" spans="1:4" ht="21">
       <c r="A145" s="8" t="s">
         <v>134</v>
       </c>
@@ -3418,7 +3420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="21">
+    <row r="146" spans="1:4" ht="21">
       <c r="A146" s="8" t="s">
         <v>134</v>
       </c>
@@ -3429,18 +3431,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="21">
+    <row r="147" spans="1:4" ht="21">
       <c r="A147" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C147" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="21">
+      <c r="C147" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D147" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="21">
       <c r="A148" s="8" t="s">
         <v>134</v>
       </c>
@@ -3451,7 +3456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="21">
+    <row r="149" spans="1:4" ht="21">
       <c r="A149" s="8" t="s">
         <v>134</v>
       </c>
@@ -3462,7 +3467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="21">
+    <row r="150" spans="1:4" ht="21">
       <c r="A150" s="8" t="s">
         <v>134</v>
       </c>
@@ -3473,7 +3478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="21">
+    <row r="151" spans="1:4" ht="21">
       <c r="A151" s="8" t="s">
         <v>134</v>
       </c>
@@ -3484,7 +3489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="21">
+    <row r="152" spans="1:4" ht="21">
       <c r="A152" s="8" t="s">
         <v>134</v>
       </c>
@@ -3495,7 +3500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="21">
+    <row r="153" spans="1:4" ht="21">
       <c r="A153" s="8" t="s">
         <v>134</v>
       </c>
@@ -3506,7 +3511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="21">
+    <row r="154" spans="1:4" ht="21">
       <c r="A154" s="8" t="s">
         <v>134</v>
       </c>
@@ -3517,7 +3522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="21">
+    <row r="155" spans="1:4" ht="21">
       <c r="A155" s="8" t="s">
         <v>134</v>
       </c>
@@ -3528,7 +3533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="21">
+    <row r="156" spans="1:4" ht="21">
       <c r="A156" s="8" t="s">
         <v>134</v>
       </c>
@@ -3539,7 +3544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="21">
+    <row r="157" spans="1:4" ht="21">
       <c r="A157" s="8" t="s">
         <v>134</v>
       </c>
@@ -3550,7 +3555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="21">
+    <row r="158" spans="1:4" ht="21">
       <c r="A158" s="8" t="s">
         <v>134</v>
       </c>
@@ -3561,7 +3566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="21">
+    <row r="159" spans="1:4" ht="21">
       <c r="A159" s="8" t="s">
         <v>134</v>
       </c>
@@ -3572,7 +3577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="21">
+    <row r="160" spans="1:4" ht="21">
       <c r="A160" s="8" t="s">
         <v>134</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAIKAT BISHAL\Desktop\desktop\v\final450\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\final450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75227115-0D6A-4A2D-9E6F-6D0690BD805E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97780E3D-3F19-4FDF-AAD3-39A7D1559196}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="0" yWindow="4365" windowWidth="14535" windowHeight="11835" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1425,7 +1425,25 @@
     <t>yes</t>
   </si>
   <si>
-    <t xml:space="preserve"> yes</t>
+    <t>yes/no</t>
+  </si>
+  <si>
+    <t>All sorting algorithms</t>
+  </si>
+  <si>
+    <t>time not optimized</t>
+  </si>
+  <si>
+    <t>Dynamic programming</t>
+  </si>
+  <si>
+    <t>do today</t>
+  </si>
+  <si>
+    <t>M58</t>
+  </si>
+  <si>
+    <t>reverse -&gt; add one -&gt; reverse</t>
   </si>
 </sst>
 </file>
@@ -1872,10 +1890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134:XFD134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1883,19 +1901,20 @@
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="B2" s="10" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" spans="1:4" ht="21">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1906,12 +1925,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="C5" s="11" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="5" spans="1:4">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1922,7 +1939,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21">
+    <row r="7" spans="1:4" ht="21">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1930,76 +1947,82 @@
         <v>7</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21">
+      <c r="C8" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21">
+      <c r="C9" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21">
+      <c r="C10" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21">
+      <c r="C11" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21">
+      <c r="C12" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21">
+      <c r="C13" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2010,18 +2033,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="21">
+      <c r="C15" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -2032,7 +2055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21">
+    <row r="17" spans="1:4" ht="21">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -2043,18 +2066,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21">
+    <row r="18" spans="1:4" ht="21">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="21">
+      <c r="C18" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D18" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2065,18 +2091,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21">
+    <row r="20" spans="1:4" ht="21">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="21">
+      <c r="C20" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="21">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2087,40 +2113,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21">
+    <row r="22" spans="1:4" ht="21">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="21">
+      <c r="C22" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="21">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="21">
+      <c r="C23" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="21">
+      <c r="C24" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="21">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2131,18 +2157,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21">
+    <row r="26" spans="1:4" ht="21">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="21">
+      <c r="C26" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="21">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2153,18 +2179,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21">
+    <row r="28" spans="1:4" ht="21">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="21">
+      <c r="C28" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="21">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2175,18 +2201,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21">
+    <row r="30" spans="1:4" ht="21">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="21">
+      <c r="C30" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="21">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2197,7 +2223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21">
+    <row r="32" spans="1:4" ht="21">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -2208,7 +2234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21">
+    <row r="33" spans="1:4" ht="21">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
@@ -2219,51 +2245,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21">
+    <row r="34" spans="1:4" ht="21">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="21">
+      <c r="C34" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="21">
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="21">
+      <c r="C35" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D35" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="21">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="21">
+      <c r="C36" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="21">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="21">
+      <c r="C37" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="21">
       <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
@@ -2274,18 +2303,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21">
+    <row r="39" spans="1:4" ht="21">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="21">
+      <c r="C39" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="21">
       <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
@@ -2296,7 +2325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21">
+    <row r="41" spans="1:4" ht="21">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -2307,31 +2336,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21">
+    <row r="42" spans="1:4" ht="21">
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21">
+    <row r="43" spans="1:4" ht="21">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21">
+    <row r="44" spans="1:4" ht="21">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="21">
+      <c r="C44" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="21">
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
@@ -2342,7 +2371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21">
+    <row r="46" spans="1:4" ht="21">
       <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
@@ -2353,7 +2382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21">
+    <row r="47" spans="1:4" ht="21">
       <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
@@ -2364,7 +2393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21">
+    <row r="48" spans="1:4" ht="21">
       <c r="A48" s="8" t="s">
         <v>42</v>
       </c>
@@ -2375,7 +2404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21">
+    <row r="49" spans="1:4" ht="21">
       <c r="A49" s="8" t="s">
         <v>42</v>
       </c>
@@ -2386,7 +2415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21">
+    <row r="50" spans="1:4" ht="21">
       <c r="A50" s="8" t="s">
         <v>42</v>
       </c>
@@ -2397,18 +2426,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21">
+    <row r="51" spans="1:4" ht="21">
       <c r="A51" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="21">
+      <c r="C51" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="21">
       <c r="A52" s="8" t="s">
         <v>42</v>
       </c>
@@ -2419,7 +2448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21">
+    <row r="53" spans="1:4" ht="21">
       <c r="A53" s="8" t="s">
         <v>42</v>
       </c>
@@ -2430,67 +2459,68 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21">
+    <row r="55" spans="1:4" ht="21">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" ht="21">
+    <row r="56" spans="1:4" ht="21">
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="21">
+      <c r="C56" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="21">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="21">
+      <c r="C57" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="21">
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="21">
+      <c r="C58" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D58" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="21">
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="21">
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" ht="21">
       <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="21">
+      <c r="C60" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="21">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2501,7 +2531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21">
+    <row r="62" spans="1:4" ht="21">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
@@ -2512,7 +2542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21">
+    <row r="63" spans="1:4" ht="21">
       <c r="A63" s="5" t="s">
         <v>53</v>
       </c>
@@ -2523,7 +2553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="21">
+    <row r="64" spans="1:4" ht="21">
       <c r="A64" s="5" t="s">
         <v>53</v>
       </c>
@@ -3320,8 +3350,8 @@
       <c r="B139" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>4</v>
+      <c r="C139" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="21">
@@ -3379,7 +3409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="21">
+    <row r="145" spans="1:4" ht="21">
       <c r="A145" s="8" t="s">
         <v>134</v>
       </c>
@@ -3390,7 +3420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="21">
+    <row r="146" spans="1:4" ht="21">
       <c r="A146" s="8" t="s">
         <v>134</v>
       </c>
@@ -3401,18 +3431,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="21">
+    <row r="147" spans="1:4" ht="21">
       <c r="A147" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C147" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="21">
+      <c r="C147" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D147" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="21">
       <c r="A148" s="8" t="s">
         <v>134</v>
       </c>
@@ -3423,7 +3456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="21">
+    <row r="149" spans="1:4" ht="21">
       <c r="A149" s="8" t="s">
         <v>134</v>
       </c>
@@ -3434,7 +3467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="21">
+    <row r="150" spans="1:4" ht="21">
       <c r="A150" s="8" t="s">
         <v>134</v>
       </c>
@@ -3445,7 +3478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="21">
+    <row r="151" spans="1:4" ht="21">
       <c r="A151" s="8" t="s">
         <v>134</v>
       </c>
@@ -3456,7 +3489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="21">
+    <row r="152" spans="1:4" ht="21">
       <c r="A152" s="8" t="s">
         <v>134</v>
       </c>
@@ -3467,7 +3500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="21">
+    <row r="153" spans="1:4" ht="21">
       <c r="A153" s="8" t="s">
         <v>134</v>
       </c>
@@ -3478,7 +3511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="21">
+    <row r="154" spans="1:4" ht="21">
       <c r="A154" s="8" t="s">
         <v>134</v>
       </c>
@@ -3489,7 +3522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="21">
+    <row r="155" spans="1:4" ht="21">
       <c r="A155" s="8" t="s">
         <v>134</v>
       </c>
@@ -3500,7 +3533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="21">
+    <row r="156" spans="1:4" ht="21">
       <c r="A156" s="8" t="s">
         <v>134</v>
       </c>
@@ -3511,7 +3544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="21">
+    <row r="157" spans="1:4" ht="21">
       <c r="A157" s="8" t="s">
         <v>134</v>
       </c>
@@ -3522,7 +3555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="21">
+    <row r="158" spans="1:4" ht="21">
       <c r="A158" s="8" t="s">
         <v>134</v>
       </c>
@@ -3533,7 +3566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="21">
+    <row r="159" spans="1:4" ht="21">
       <c r="A159" s="8" t="s">
         <v>134</v>
       </c>
@@ -3544,7 +3577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="21">
+    <row r="160" spans="1:4" ht="21">
       <c r="A160" s="8" t="s">
         <v>134</v>
       </c>
@@ -7395,6 +7428,5 @@
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\final450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3EBE6C-B97B-403A-8185-94520C006152}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97850606-64B7-4F4B-B6DE-D484C154DF96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-7245" yWindow="4470" windowWidth="14535" windowHeight="11835" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1892,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3405,8 +3406,8 @@
       <c r="B144" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>4</v>
+      <c r="C144" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="21">
@@ -3427,8 +3428,8 @@
       <c r="B146" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>4</v>
+      <c r="C146" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAIKAT BISHAL\Desktop\desktop\v\final450\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\final450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75227115-0D6A-4A2D-9E6F-6D0690BD805E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97850606-64B7-4F4B-B6DE-D484C154DF96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-7245" yWindow="4470" windowWidth="14535" windowHeight="11835" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1425,7 +1426,25 @@
     <t>yes</t>
   </si>
   <si>
-    <t xml:space="preserve"> yes</t>
+    <t>yes/no</t>
+  </si>
+  <si>
+    <t>All sorting algorithms</t>
+  </si>
+  <si>
+    <t>time not optimized</t>
+  </si>
+  <si>
+    <t>Dynamic programming</t>
+  </si>
+  <si>
+    <t>do today</t>
+  </si>
+  <si>
+    <t>M58</t>
+  </si>
+  <si>
+    <t>reverse -&gt; add one -&gt; reverse</t>
   </si>
 </sst>
 </file>
@@ -1872,10 +1891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1883,19 +1902,20 @@
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="B2" s="10" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" spans="1:4" ht="21">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1906,12 +1926,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="C5" s="11" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="5" spans="1:4">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1922,7 +1940,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21">
+    <row r="7" spans="1:4" ht="21">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1930,76 +1948,82 @@
         <v>7</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21">
+      <c r="C8" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21">
+      <c r="C9" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21">
+      <c r="C10" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21">
+      <c r="C11" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21">
+      <c r="C12" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21">
+      <c r="C13" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2010,18 +2034,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="21">
+      <c r="C15" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -2032,7 +2056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21">
+    <row r="17" spans="1:4" ht="21">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -2043,18 +2067,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21">
+    <row r="18" spans="1:4" ht="21">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="21">
+      <c r="C18" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D18" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2065,18 +2092,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21">
+    <row r="20" spans="1:4" ht="21">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="21">
+      <c r="C20" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="21">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2087,40 +2114,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21">
+    <row r="22" spans="1:4" ht="21">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="21">
+      <c r="C22" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="21">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="21">
+      <c r="C23" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="21">
+      <c r="C24" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="21">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2131,18 +2158,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21">
+    <row r="26" spans="1:4" ht="21">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="21">
+      <c r="C26" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="21">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2153,18 +2180,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21">
+    <row r="28" spans="1:4" ht="21">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="21">
+      <c r="C28" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="21">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2175,18 +2202,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21">
+    <row r="30" spans="1:4" ht="21">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="21">
+      <c r="C30" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="21">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2197,7 +2224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21">
+    <row r="32" spans="1:4" ht="21">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -2208,7 +2235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21">
+    <row r="33" spans="1:4" ht="21">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
@@ -2219,51 +2246,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21">
+    <row r="34" spans="1:4" ht="21">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="21">
+      <c r="C34" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="21">
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="21">
+      <c r="C35" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D35" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="21">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="21">
+      <c r="C36" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="21">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="21">
+      <c r="C37" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="21">
       <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
@@ -2274,18 +2304,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21">
+    <row r="39" spans="1:4" ht="21">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="21">
+      <c r="C39" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="21">
       <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
@@ -2296,7 +2326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21">
+    <row r="41" spans="1:4" ht="21">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -2307,31 +2337,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21">
+    <row r="42" spans="1:4" ht="21">
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21">
+    <row r="43" spans="1:4" ht="21">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21">
+    <row r="44" spans="1:4" ht="21">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="21">
+      <c r="C44" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="21">
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
@@ -2342,7 +2372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21">
+    <row r="46" spans="1:4" ht="21">
       <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
@@ -2353,7 +2383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21">
+    <row r="47" spans="1:4" ht="21">
       <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
@@ -2364,7 +2394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21">
+    <row r="48" spans="1:4" ht="21">
       <c r="A48" s="8" t="s">
         <v>42</v>
       </c>
@@ -2375,7 +2405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21">
+    <row r="49" spans="1:4" ht="21">
       <c r="A49" s="8" t="s">
         <v>42</v>
       </c>
@@ -2386,7 +2416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21">
+    <row r="50" spans="1:4" ht="21">
       <c r="A50" s="8" t="s">
         <v>42</v>
       </c>
@@ -2397,18 +2427,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21">
+    <row r="51" spans="1:4" ht="21">
       <c r="A51" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="21">
+      <c r="C51" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="21">
       <c r="A52" s="8" t="s">
         <v>42</v>
       </c>
@@ -2419,7 +2449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21">
+    <row r="53" spans="1:4" ht="21">
       <c r="A53" s="8" t="s">
         <v>42</v>
       </c>
@@ -2430,67 +2460,68 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21">
+    <row r="55" spans="1:4" ht="21">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" ht="21">
+    <row r="56" spans="1:4" ht="21">
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="21">
+      <c r="C56" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="21">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="21">
+      <c r="C57" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="21">
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="21">
+      <c r="C58" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D58" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="21">
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="21">
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" ht="21">
       <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="21">
+      <c r="C60" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="21">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2501,7 +2532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21">
+    <row r="62" spans="1:4" ht="21">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
@@ -2512,7 +2543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21">
+    <row r="63" spans="1:4" ht="21">
       <c r="A63" s="5" t="s">
         <v>53</v>
       </c>
@@ -2523,7 +2554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="21">
+    <row r="64" spans="1:4" ht="21">
       <c r="A64" s="5" t="s">
         <v>53</v>
       </c>
@@ -3375,11 +3406,11 @@
       <c r="B144" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="21">
+      <c r="C144" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="21">
       <c r="A145" s="8" t="s">
         <v>134</v>
       </c>
@@ -3390,29 +3421,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="21">
+    <row r="146" spans="1:4" ht="21">
       <c r="A146" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="21">
+      <c r="C146" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="21">
       <c r="A147" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C147" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="21">
+      <c r="C147" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D147" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="21">
       <c r="A148" s="8" t="s">
         <v>134</v>
       </c>
@@ -3423,7 +3457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="21">
+    <row r="149" spans="1:4" ht="21">
       <c r="A149" s="8" t="s">
         <v>134</v>
       </c>
@@ -3434,7 +3468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="21">
+    <row r="150" spans="1:4" ht="21">
       <c r="A150" s="8" t="s">
         <v>134</v>
       </c>
@@ -3445,7 +3479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="21">
+    <row r="151" spans="1:4" ht="21">
       <c r="A151" s="8" t="s">
         <v>134</v>
       </c>
@@ -3456,7 +3490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="21">
+    <row r="152" spans="1:4" ht="21">
       <c r="A152" s="8" t="s">
         <v>134</v>
       </c>
@@ -3467,7 +3501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="21">
+    <row r="153" spans="1:4" ht="21">
       <c r="A153" s="8" t="s">
         <v>134</v>
       </c>
@@ -3478,7 +3512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="21">
+    <row r="154" spans="1:4" ht="21">
       <c r="A154" s="8" t="s">
         <v>134</v>
       </c>
@@ -3489,7 +3523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="21">
+    <row r="155" spans="1:4" ht="21">
       <c r="A155" s="8" t="s">
         <v>134</v>
       </c>
@@ -3500,7 +3534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="21">
+    <row r="156" spans="1:4" ht="21">
       <c r="A156" s="8" t="s">
         <v>134</v>
       </c>
@@ -3511,7 +3545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="21">
+    <row r="157" spans="1:4" ht="21">
       <c r="A157" s="8" t="s">
         <v>134</v>
       </c>
@@ -3522,7 +3556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="21">
+    <row r="158" spans="1:4" ht="21">
       <c r="A158" s="8" t="s">
         <v>134</v>
       </c>
@@ -3533,7 +3567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="21">
+    <row r="159" spans="1:4" ht="21">
       <c r="A159" s="8" t="s">
         <v>134</v>
       </c>
@@ -3544,7 +3578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="21">
+    <row r="160" spans="1:4" ht="21">
       <c r="A160" s="8" t="s">
         <v>134</v>
       </c>
@@ -7395,6 +7429,5 @@
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>